--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,79 +66,79 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2 - x + 0.7690361647053623y</t>
-  </si>
-  <si>
-    <t>2.581095798981914</t>
+    <t>-12.875620327718131 - x + 3.0295976275849865y</t>
+  </si>
+  <si>
+    <t>14.875620327718131</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5719608447391625</t>
-  </si>
-  <si>
-    <t>0.08347035892536235</t>
-  </si>
-  <si>
-    <t>0.7479568133330162</t>
-  </si>
-  <si>
-    <t>-2 - 0.25x</t>
-  </si>
-  <si>
-    <t>-2.4534291837828825</t>
-  </si>
-  <si>
-    <t>0.8600010900817717</t>
-  </si>
-  <si>
-    <t>0.7897832925913101</t>
+    <t>0.62</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-8 + x + 0.013705045575081731y</t>
-  </si>
-  <si>
-    <t>-6.143605148506573</t>
+    <t>3.5999999999999996</t>
+  </si>
+  <si>
+    <t>-25.163290564403454 - 0.25x + 5.217640358618588y</t>
+  </si>
+  <si>
+    <t>23.163290564403454</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>-1.5668395382394484 + x - 0.0941383052358844y</t>
+  </si>
+  <si>
+    <t>-6.433160461760552</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.2524405147195238</t>
-  </si>
-  <si>
-    <t>0.7166422443384337</t>
-  </si>
-  <si>
-    <t>-2 + x + 0.8137414182803164y</t>
-  </si>
-  <si>
-    <t>2.3477434005375377</t>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>-2.85 + x</t>
+  </si>
+  <si>
+    <t>0.03000000000000025</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.25205297546627203</t>
-  </si>
-  <si>
-    <t>0.7914366918325897</t>
-  </si>
-  <si>
-    <t>0.12756514893670623y</t>
-  </si>
-  <si>
-    <t>0.39724349986416496</t>
-  </si>
-  <si>
-    <t>0.0911069374509522</t>
-  </si>
-  <si>
-    <t>0.12406857657676695</t>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>-17.575845373234547 + 3.4503750758606797y</t>
+  </si>
+  <si>
+    <t>16.975845373234545</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>9.8</t>
   </si>
   <si>
     <t>x</t>
@@ -147,25 +147,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.8137167351315309</t>
-  </si>
-  <si>
-    <t>3.1140441035448054</t>
+    <t>2.0300000000000002</t>
+  </si>
+  <si>
+    <t>4.92</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.33995370105813116</t>
+    <t>-6.9775710905615895</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.7190838179268102</t>
-  </si>
-  <si>
-    <t>-1.0641917246945407</t>
+    <t>-11.5</t>
+  </si>
+  <si>
+    <t>-34.42770869196754</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -636,27 +636,27 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -676,10 +676,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -696,10 +696,10 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +802,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9725899088498365</v>
+        <v>1.1882766104717688</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,79 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-12.875620327718131 - x + 3.0295976275849865y</t>
-  </si>
-  <si>
-    <t>14.875620327718131</t>
+    <t>-0.6941935483870978 - x + 2.5806451612903225y</t>
+  </si>
+  <si>
+    <t>2.694193548387098</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.62</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>-20.624086021505377 - 0.25x + 8.924731182795698y</t>
+  </si>
+  <si>
+    <t>18.624086021505377</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>8.299999999999999</t>
+  </si>
+  <si>
+    <t>-5.76645 + x + 0.03500000000000003y</t>
+  </si>
+  <si>
+    <t>-2.23355</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.97</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>3.5999999999999996</t>
-  </si>
-  <si>
-    <t>-25.163290564403454 - 0.25x + 5.217640358618588y</t>
-  </si>
-  <si>
-    <t>23.163290564403454</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>-1.5668395382394484 + x - 0.0941383052358844y</t>
-  </si>
-  <si>
-    <t>-6.433160461760552</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>-2.85 + x</t>
-  </si>
-  <si>
-    <t>0.03000000000000025</t>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>-20.28193548387097 + x + 5.806451612903225y</t>
+  </si>
+  <si>
+    <t>18.02193548387097</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>-17.575845373234547 + 3.4503750758606797y</t>
-  </si>
-  <si>
-    <t>16.975845373234545</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>9.8</t>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>-1.8991397849462368 + 0.7526881720430108y</t>
+  </si>
+  <si>
+    <t>1.8591397849462368</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>0.7000000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -147,25 +156,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.0300000000000002</t>
-  </si>
-  <si>
-    <t>4.92</t>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>2.47</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-6.9775710905615895</t>
+    <t>-4.1221220430107515</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-11.5</t>
-  </si>
-  <si>
-    <t>-34.42770869196754</t>
+    <t>3.675</t>
+  </si>
+  <si>
+    <t>-107.08602150537634</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -636,70 +645,70 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -717,18 +726,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -746,12 +755,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -769,17 +778,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -797,12 +806,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.1882766104717688</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,115 +66,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.6941935483870978 - x + 2.5806451612903225y</t>
-  </si>
-  <si>
-    <t>2.694193548387098</t>
+    <t>-2.666551724137933 - x + 1.2068965517241381y</t>
+  </si>
+  <si>
+    <t>4.666551724137933</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>-20.624086021505377 - 0.25x + 8.924731182795698y</t>
-  </si>
-  <si>
-    <t>18.624086021505377</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>9.5</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>-19.01706896551724 - 0.25x + 3.275862068965517y</t>
+  </si>
+  <si>
+    <t>17.01706896551724</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>5.699999999999999</t>
+  </si>
+  <si>
+    <t>-4.78 + x</t>
+  </si>
+  <si>
+    <t>-3.2199999999999998</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>-16.69172413793104 + x + 1.8965517241379315y</t>
+  </si>
+  <si>
+    <t>14.481724137931039</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>0.79</t>
   </si>
   <si>
     <t>8.299999999999999</t>
   </si>
   <si>
-    <t>-5.76645 + x + 0.03500000000000003y</t>
-  </si>
-  <si>
-    <t>-2.23355</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>-20.28193548387097 + x + 5.806451612903225y</t>
-  </si>
-  <si>
-    <t>18.02193548387097</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>-1.8991397849462368 + 0.7526881720430108y</t>
-  </si>
-  <si>
-    <t>1.8591397849462368</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>0.7000000000000001</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>2.47</t>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>6.17</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-4.1221220430107515</t>
+    <t>-2.148275862068966</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>3.675</t>
-  </si>
-  <si>
-    <t>-107.08602150537634</t>
+    <t>-1.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -645,70 +627,70 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -726,18 +708,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -755,12 +737,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -778,17 +760,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -806,12 +788,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9299999999999999</v>
+        <v>1.7399999999999998</v>
       </c>
     </row>
   </sheetData>
